--- a/Assignments And Project/Freelancer.xlsx
+++ b/Assignments And Project/Freelancer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0ebb4d1e6d2e23f2/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Akash\Git Akash\Code-Example\Assignments And Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{27B153BA-3C66-4C3B-A875-BD7C92FA9F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B0B696-7BE2-45D0-A13E-979E796122E8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC29700-52A5-4E1D-9AB1-BF9490F75CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1680" windowWidth="17280" windowHeight="8880" xr2:uid="{4834D1F0-6638-4026-BD3C-A530E57B9C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4834D1F0-6638-4026-BD3C-A530E57B9C27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E96AB3-F489-4BF5-848B-3DD6F916C203}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
     <col min="5" max="5" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -528,8 +528,11 @@
       <c r="E2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -545,8 +548,11 @@
       <c r="E3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -562,8 +568,11 @@
       <c r="E4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -574,7 +583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -590,8 +599,11 @@
       <c r="E6">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -607,8 +619,11 @@
       <c r="E7">
         <v>1200</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -624,8 +639,11 @@
       <c r="E8">
         <v>1500</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -641,8 +659,11 @@
       <c r="E9">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -658,8 +679,11 @@
       <c r="E10">
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -674,6 +698,14 @@
       </c>
       <c r="E11">
         <v>1500</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
